--- a/BackTest/2020-01-13 BackTest GNT.xlsx
+++ b/BackTest/2020-01-13 BackTest GNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N130"/>
+  <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>225051.922</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>161144.1301</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>147972.9158</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,19 @@
         <v>131802.3671</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>32.4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>32.4</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1313,23 @@
         <v>132982.367</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>32.4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1354,23 @@
         <v>128315.8219</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>32.43</v>
+      </c>
+      <c r="J29" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,24 +1395,23 @@
         <v>143715.9583</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>32.3</v>
       </c>
       <c r="J30" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
+        <v>32.4</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1506,24 +1436,23 @@
         <v>142669.9583</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>32.4</v>
       </c>
       <c r="J31" t="n">
         <v>32.4</v>
       </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1548,24 +1477,23 @@
         <v>142669.9583</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>32.38</v>
       </c>
       <c r="J32" t="n">
-        <v>32.38</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+        <v>32.4</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1590,24 +1518,23 @@
         <v>127545.5806</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>32.38</v>
       </c>
       <c r="J33" t="n">
-        <v>32.38</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+        <v>32.4</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1632,24 +1559,23 @@
         <v>131205.3795</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>32.05</v>
       </c>
       <c r="J34" t="n">
-        <v>32.05</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+        <v>32.4</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1674,24 +1600,21 @@
         <v>133493.1195</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
+        <v>32.4</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1716,24 +1639,21 @@
         <v>133493.1195</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>32.16</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
+        <v>32.4</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1758,24 +1678,21 @@
         <v>141178.4178</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>32.16</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+        <v>32.4</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1800,24 +1717,21 @@
         <v>157266.9062</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+        <v>32.4</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1842,24 +1756,21 @@
         <v>157266.9062</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
+        <v>32.4</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1884,24 +1795,21 @@
         <v>157266.9062</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
+        <v>32.4</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1926,24 +1834,21 @@
         <v>157266.9062</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
+        <v>32.4</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1968,24 +1873,21 @@
         <v>158300.9062</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
+        <v>32.4</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2010,24 +1912,21 @@
         <v>205775.927</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>32.42</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
+        <v>32.4</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2054,20 +1953,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2094,20 +1992,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2134,20 +2031,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2174,20 +2070,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2212,22 +2107,21 @@
         <v>222355.1218</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1.004259259259259</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2252,22 +2146,15 @@
         <v>222355.1218</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2292,22 +2179,15 @@
         <v>222355.1218</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2334,20 +2214,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2374,20 +2247,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2414,20 +2280,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2454,20 +2313,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2494,20 +2346,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2532,22 +2377,15 @@
         <v>196810.5426</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2572,22 +2410,15 @@
         <v>199923.9843</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2612,22 +2443,15 @@
         <v>199907.9843</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2652,22 +2476,15 @@
         <v>199882.8472</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2692,22 +2509,15 @@
         <v>199134.7532</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2732,22 +2542,15 @@
         <v>197944.7532</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2772,22 +2575,15 @@
         <v>191435.597</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2814,20 +2610,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2854,20 +2643,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2894,20 +2676,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2934,20 +2709,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2974,20 +2742,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3014,20 +2775,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3054,20 +2808,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3094,20 +2841,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3134,20 +2874,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3174,20 +2907,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3214,20 +2940,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3254,20 +2973,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3294,20 +3006,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3332,24 +3037,15 @@
         <v>209895.153</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>32.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3376,20 +3072,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3416,20 +3105,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3456,20 +3138,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3494,22 +3169,15 @@
         <v>660596.6870000002</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3534,22 +3202,15 @@
         <v>616031.8098000002</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3574,22 +3235,15 @@
         <v>616031.8098000002</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3616,20 +3270,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3656,20 +3303,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3696,20 +3336,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3736,20 +3369,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3776,20 +3402,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3816,20 +3435,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3856,20 +3468,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3896,20 +3501,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3936,20 +3534,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3976,20 +3567,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4014,22 +3598,15 @@
         <v>616890.8271000002</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4056,20 +3633,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4096,20 +3666,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4136,20 +3699,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4176,20 +3732,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4216,20 +3765,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4256,20 +3798,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4296,20 +3831,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4336,20 +3864,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4376,20 +3897,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4416,20 +3930,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4456,20 +3963,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4496,20 +3996,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4536,20 +4029,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4576,20 +4062,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4614,22 +4093,15 @@
         <v>753160.3904000003</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4656,20 +4128,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4696,20 +4161,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4736,18 +4194,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L111" t="n">
+        <v>1</v>
       </c>
       <c r="M111" t="inlineStr"/>
-      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4774,16 +4227,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4808,18 +4258,15 @@
         <v>799774.0074000002</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4846,16 +4293,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4882,16 +4326,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4918,16 +4359,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4954,16 +4392,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4990,16 +4425,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5026,16 +4458,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5060,18 +4489,15 @@
         <v>801947.5818000003</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5098,16 +4524,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5134,16 +4557,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5170,16 +4590,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5206,16 +4623,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5242,16 +4656,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5278,16 +4689,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5312,18 +4720,15 @@
         <v>804623.1329000003</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5350,16 +4755,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5386,16 +4788,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5420,20 +4819,17 @@
         <v>818029.1329000003</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest GNT.xlsx
+++ b/BackTest/2020-01-13 BackTest GNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>225051.922</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>161144.1301</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>147972.9158</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1045,11 +1045,17 @@
         <v>108649.289</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>32.5</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1084,17 @@
         <v>141090.8581</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>32.36</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1123,17 @@
         <v>140090.8581</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>32.69</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1162,17 @@
         <v>144590.8581</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>32.39</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1201,17 @@
         <v>140324.5232</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>32.5</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1240,17 @@
         <v>131802.3671</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>32.49</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1279,17 @@
         <v>131802.3671</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>32.4</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,15 +1318,17 @@
         <v>131802.3671</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>32.4</v>
       </c>
-      <c r="J27" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,17 +1357,15 @@
         <v>132982.367</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>32.4</v>
       </c>
-      <c r="J28" t="n">
-        <v>32.4</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -1354,14 +1396,12 @@
         <v>128315.8219</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>32.43</v>
       </c>
-      <c r="J29" t="n">
-        <v>32.4</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1395,14 +1435,12 @@
         <v>143715.9583</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>32.3</v>
       </c>
-      <c r="J30" t="n">
-        <v>32.4</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1436,14 +1474,12 @@
         <v>142669.9583</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>32.4</v>
       </c>
-      <c r="J31" t="n">
-        <v>32.4</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1477,14 +1513,12 @@
         <v>142669.9583</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>32.38</v>
       </c>
-      <c r="J32" t="n">
-        <v>32.4</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1518,14 +1552,12 @@
         <v>127545.5806</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>32.38</v>
       </c>
-      <c r="J33" t="n">
-        <v>32.4</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1559,14 +1591,12 @@
         <v>131205.3795</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>32.05</v>
       </c>
-      <c r="J34" t="n">
-        <v>32.4</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1600,12 +1630,12 @@
         <v>133493.1195</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>32.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1639,12 +1669,12 @@
         <v>133493.1195</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>32.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>32.16</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1678,12 +1708,12 @@
         <v>141178.4178</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>32.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>32.16</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1717,12 +1747,12 @@
         <v>157266.9062</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>32.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1756,12 +1786,12 @@
         <v>157266.9062</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>32.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1795,12 +1825,12 @@
         <v>157266.9062</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>32.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1834,12 +1864,12 @@
         <v>157266.9062</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>32.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1876,9 +1906,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>32.4</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1915,9 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>32.4</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1954,9 +1980,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>32.4</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1993,9 +2017,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>32.4</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2032,9 +2054,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>32.4</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2071,9 +2091,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>32.4</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2107,19 +2125,17 @@
         <v>222355.1218</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>32.4</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.004259259259259</v>
+        <v>1</v>
       </c>
       <c r="M48" t="inlineStr"/>
     </row>
@@ -2146,11 +2162,15 @@
         <v>222355.1218</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2179,11 +2199,15 @@
         <v>222355.1218</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2216,7 +2240,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2249,7 +2277,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2282,7 +2314,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2315,7 +2351,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2348,7 +2388,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2377,11 +2421,15 @@
         <v>196810.5426</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2410,11 +2458,15 @@
         <v>199923.9843</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2443,11 +2495,15 @@
         <v>199907.9843</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2476,11 +2532,15 @@
         <v>199882.8472</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2509,11 +2569,15 @@
         <v>199134.7532</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2542,11 +2606,15 @@
         <v>197944.7532</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2575,11 +2643,15 @@
         <v>191435.597</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2612,7 +2684,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2645,7 +2721,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2678,7 +2758,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2711,7 +2795,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2744,7 +2832,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2777,7 +2869,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2810,7 +2906,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2843,7 +2943,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2876,7 +2980,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2909,7 +3017,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2942,7 +3054,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2975,7 +3091,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3008,7 +3128,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3037,11 +3161,17 @@
         <v>209895.153</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>32.32</v>
+      </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3074,7 +3204,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3107,7 +3241,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3140,7 +3278,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3169,11 +3311,15 @@
         <v>660596.6870000002</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3202,11 +3348,15 @@
         <v>616031.8098000002</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3235,11 +3385,15 @@
         <v>616031.8098000002</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3272,7 +3426,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3305,7 +3463,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3338,7 +3500,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3371,7 +3537,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3404,7 +3574,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3437,7 +3611,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3470,7 +3648,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3503,7 +3685,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3536,7 +3722,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3569,7 +3759,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3598,11 +3792,15 @@
         <v>616890.8271000002</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3635,7 +3833,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3668,7 +3870,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3701,7 +3907,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3734,7 +3944,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3767,7 +3981,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3800,7 +4018,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3833,7 +4055,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3866,7 +4092,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3899,7 +4129,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3932,7 +4166,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3965,7 +4203,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3998,7 +4240,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4031,7 +4277,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4064,7 +4314,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4093,14 +4347,16 @@
         <v>753160.3904000003</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
@@ -4258,7 +4514,7 @@
         <v>799774.0074000002</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4423,7 +4679,7 @@
         <v>801947.5818000003</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4456,7 +4712,7 @@
         <v>801947.5818000003</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4489,7 +4745,7 @@
         <v>801947.5818000003</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4522,7 +4778,7 @@
         <v>803127.5817000003</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4555,7 +4811,7 @@
         <v>810976.9178000003</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4588,7 +4844,7 @@
         <v>808576.9178000003</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4621,7 +4877,7 @@
         <v>800727.5817000003</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4654,7 +4910,7 @@
         <v>804337.5817000003</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4687,7 +4943,7 @@
         <v>804623.1329000003</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4720,7 +4976,7 @@
         <v>804623.1329000003</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4753,7 +5009,7 @@
         <v>799623.1329000003</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4786,7 +5042,7 @@
         <v>824024.1329000003</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4819,7 +5075,7 @@
         <v>818029.1329000003</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4830,6 +5086,6 @@
       <c r="M130" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest GNT.xlsx
+++ b/BackTest/2020-01-13 BackTest GNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1045,17 +1045,11 @@
         <v>108649.289</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>32.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1084,17 +1078,11 @@
         <v>141090.8581</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>32.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1123,17 +1111,11 @@
         <v>140090.8581</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>32.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1162,17 +1144,11 @@
         <v>144590.8581</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>32.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1201,17 +1177,11 @@
         <v>140324.5232</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>32.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1240,17 +1210,11 @@
         <v>131802.3671</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>32.49</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1279,17 +1243,11 @@
         <v>131802.3671</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>32.4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1318,17 +1276,11 @@
         <v>131802.3671</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>32.4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1357,17 +1309,11 @@
         <v>132982.367</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>32.4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1396,17 +1342,11 @@
         <v>128315.8219</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>32.43</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1435,17 +1375,11 @@
         <v>143715.9583</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>32.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1474,17 +1408,11 @@
         <v>142669.9583</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>32.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1513,17 +1441,11 @@
         <v>142669.9583</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>32.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1552,17 +1474,11 @@
         <v>127545.5806</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>32.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1591,17 +1507,11 @@
         <v>131205.3795</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>32.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1630,17 +1540,11 @@
         <v>133493.1195</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>32.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1669,17 +1573,11 @@
         <v>133493.1195</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>32.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1708,17 +1606,11 @@
         <v>141178.4178</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>32.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1747,17 +1639,11 @@
         <v>157266.9062</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>32.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1786,17 +1672,11 @@
         <v>157266.9062</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>32.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1825,17 +1705,11 @@
         <v>157266.9062</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>32.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1864,17 +1738,11 @@
         <v>157266.9062</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>32.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1907,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1944,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1981,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2018,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2055,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2092,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2129,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2166,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2199,15 +2035,15 @@
         <v>222355.1218</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="J50" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2239,10 +2075,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>32.7</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2276,10 +2114,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>32.7</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2314,11 +2154,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2351,11 +2187,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2388,11 +2220,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2425,11 +2253,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2462,11 +2286,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2499,11 +2319,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2536,11 +2352,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2573,11 +2385,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2610,11 +2418,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2647,11 +2451,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2684,11 +2484,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2721,11 +2517,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2754,13 +2546,15 @@
         <v>117103.0264</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>32.4</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2791,9 +2585,11 @@
         <v>138995.6113</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>32.3</v>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -3161,11 +2957,9 @@
         <v>209895.153</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>32.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -4347,16 +4141,18 @@
         <v>753160.3904000003</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
       <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
@@ -4386,7 +4182,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4419,7 +4219,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4452,7 +4256,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4485,7 +4293,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4518,7 +4330,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4551,7 +4367,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4584,7 +4404,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4617,7 +4441,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4650,7 +4478,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4679,11 +4511,15 @@
         <v>801947.5818000003</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4712,11 +4548,15 @@
         <v>801947.5818000003</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4745,11 +4585,15 @@
         <v>801947.5818000003</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4778,11 +4622,15 @@
         <v>803127.5817000003</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4811,11 +4659,15 @@
         <v>810976.9178000003</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4844,11 +4696,15 @@
         <v>808576.9178000003</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4877,11 +4733,15 @@
         <v>800727.5817000003</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4910,11 +4770,15 @@
         <v>804337.5817000003</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4943,11 +4807,15 @@
         <v>804623.1329000003</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4976,11 +4844,15 @@
         <v>804623.1329000003</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5009,11 +4881,15 @@
         <v>799623.1329000003</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5042,11 +4918,15 @@
         <v>824024.1329000003</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5075,17 +4955,21 @@
         <v>818029.1329000003</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
       <c r="M130" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest GNT.xlsx
+++ b/BackTest/2020-01-13 BackTest GNT.xlsx
@@ -451,7 +451,7 @@
         <v>225051.922</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>209860.4696</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>33.3</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>216259.0658</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>33</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -554,7 +566,11 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,7 +603,11 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +640,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +677,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +714,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +751,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +788,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +825,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +858,17 @@
         <v>182733.2233</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>32.8</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +901,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +938,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +975,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1012,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1045,17 @@
         <v>147972.9158</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>32.6</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1088,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1121,17 @@
         <v>108649.289</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>32.5</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1160,17 @@
         <v>141090.8581</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>32.36</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1199,17 @@
         <v>140090.8581</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>32.69</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1238,17 @@
         <v>144590.8581</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>32.39</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1277,17 @@
         <v>140324.5232</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>32.5</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1316,17 @@
         <v>131802.3671</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>32.49</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1355,17 @@
         <v>131802.3671</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>32.4</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1394,17 @@
         <v>131802.3671</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>32.4</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1433,17 @@
         <v>132982.367</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>32.4</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1472,17 @@
         <v>128315.8219</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>32.43</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1511,17 @@
         <v>143715.9583</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>32.3</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1550,17 @@
         <v>142669.9583</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>32.4</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1589,17 @@
         <v>142669.9583</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>32.38</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1632,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1669,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1706,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1743,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1780,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1817,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1850,17 @@
         <v>157266.9062</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>32.3</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1889,17 @@
         <v>157266.9062</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>32.3</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1932,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1965,17 @@
         <v>158300.9062</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>32.3</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +2008,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +2045,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +2082,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2119,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2156,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2193,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2230,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,15 +2263,15 @@
         <v>222355.1218</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="J50" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2075,12 +2303,10 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>32.7</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2114,12 +2340,10 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>32.7</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2154,7 +2378,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2187,7 +2415,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2220,7 +2452,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2253,7 +2489,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2286,7 +2526,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2319,7 +2563,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2352,7 +2600,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2385,7 +2637,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2418,7 +2674,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2451,7 +2711,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2484,7 +2748,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2517,7 +2785,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2546,15 +2818,13 @@
         <v>117103.0264</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>32.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2585,11 +2855,9 @@
         <v>138995.6113</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>32.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -3068,18 +3336,16 @@
         <v>685388.2520000001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
@@ -3105,15 +3371,11 @@
         <v>660596.6870000002</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3142,15 +3404,11 @@
         <v>616031.8098000002</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3179,15 +3437,11 @@
         <v>616031.8098000002</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3216,15 +3470,11 @@
         <v>616031.8098000002</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3257,11 +3507,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3290,15 +3536,11 @@
         <v>616131.8098000002</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3327,15 +3569,11 @@
         <v>615523.7501000002</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3364,15 +3602,11 @@
         <v>614477.7501000002</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3401,15 +3635,11 @@
         <v>599967.0723000002</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3442,11 +3672,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3479,11 +3705,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3516,11 +3738,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3771,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3590,11 +3804,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3627,11 +3837,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3664,11 +3870,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3701,11 +3903,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3738,11 +3936,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3775,11 +3969,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3812,11 +4002,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3849,11 +4035,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3886,11 +4068,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3923,11 +4101,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3960,11 +4134,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3997,11 +4167,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4034,11 +4200,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4071,11 +4233,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4104,15 +4262,11 @@
         <v>661684.0575000002</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4141,15 +4295,11 @@
         <v>753160.3904000003</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4178,15 +4328,11 @@
         <v>760538.9422000003</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4215,15 +4361,11 @@
         <v>740544.9422000003</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4252,15 +4394,11 @@
         <v>740544.9422000003</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4289,15 +4427,11 @@
         <v>809774.0074000002</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4326,15 +4460,11 @@
         <v>799774.0074000002</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4363,15 +4493,11 @@
         <v>799774.0074000002</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4400,15 +4526,11 @@
         <v>801014.0074000002</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4437,15 +4559,11 @@
         <v>837353.8338000003</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4474,15 +4592,11 @@
         <v>813626.5818000003</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4511,15 +4625,11 @@
         <v>801947.5818000003</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4548,15 +4658,11 @@
         <v>801947.5818000003</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4585,15 +4691,11 @@
         <v>801947.5818000003</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4622,15 +4724,11 @@
         <v>803127.5817000003</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4659,15 +4757,11 @@
         <v>810976.9178000003</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4696,15 +4790,11 @@
         <v>808576.9178000003</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4737,11 +4827,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +4860,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4811,11 +4893,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4848,11 +4926,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4885,11 +4959,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4922,11 +4992,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4959,11 +5025,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-13 BackTest GNT.xlsx
+++ b/BackTest/2020-01-13 BackTest GNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M130"/>
+  <dimension ref="A1:L130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>74513.539</v>
       </c>
       <c r="G2" t="n">
-        <v>225051.922</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,15 @@
         <v>15191.4524</v>
       </c>
       <c r="G3" t="n">
-        <v>209860.4696</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>33.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +503,15 @@
         <v>6398.5962</v>
       </c>
       <c r="G4" t="n">
-        <v>216259.0658</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,22 +533,15 @@
         <v>15401.7838</v>
       </c>
       <c r="G5" t="n">
-        <v>216259.0658</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -596,22 +563,15 @@
         <v>25024.5375</v>
       </c>
       <c r="G6" t="n">
-        <v>216259.0658</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -633,22 +593,15 @@
         <v>17908.7229</v>
       </c>
       <c r="G7" t="n">
-        <v>198350.3429</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -670,22 +623,15 @@
         <v>37206.2128</v>
       </c>
       <c r="G8" t="n">
-        <v>161144.1301</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,22 +653,15 @@
         <v>16</v>
       </c>
       <c r="G9" t="n">
-        <v>161160.1301</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,22 +683,15 @@
         <v>1588.4778</v>
       </c>
       <c r="G10" t="n">
-        <v>159571.6523</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -781,22 +713,15 @@
         <v>22024.6715</v>
       </c>
       <c r="G11" t="n">
-        <v>181596.3238</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,22 +743,15 @@
         <v>26742.023</v>
       </c>
       <c r="G12" t="n">
-        <v>181596.3238</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -855,24 +773,15 @@
         <v>1136.8995</v>
       </c>
       <c r="G13" t="n">
-        <v>182733.2233</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>32.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -894,22 +803,15 @@
         <v>4501.385</v>
       </c>
       <c r="G14" t="n">
-        <v>178231.8383</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -931,22 +833,15 @@
         <v>2380</v>
       </c>
       <c r="G15" t="n">
-        <v>175851.8383</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -968,22 +863,15 @@
         <v>13281.5981</v>
       </c>
       <c r="G16" t="n">
-        <v>175851.8383</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1005,22 +893,15 @@
         <v>27878.9225</v>
       </c>
       <c r="G17" t="n">
-        <v>147972.9158</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1042,24 +923,15 @@
         <v>7000</v>
       </c>
       <c r="G18" t="n">
-        <v>147972.9158</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>32.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1081,22 +953,15 @@
         <v>13121.8813</v>
       </c>
       <c r="G19" t="n">
-        <v>134851.0345</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1118,24 +983,15 @@
         <v>26201.7455</v>
       </c>
       <c r="G20" t="n">
-        <v>108649.289</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>32.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1157,24 +1013,15 @@
         <v>32441.5691</v>
       </c>
       <c r="G21" t="n">
-        <v>141090.8581</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>32.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1196,24 +1043,15 @@
         <v>1000</v>
       </c>
       <c r="G22" t="n">
-        <v>140090.8581</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>32.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1235,24 +1073,15 @@
         <v>4500</v>
       </c>
       <c r="G23" t="n">
-        <v>144590.8581</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>32.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1274,24 +1103,15 @@
         <v>4266.3349</v>
       </c>
       <c r="G24" t="n">
-        <v>140324.5232</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>32.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1313,24 +1133,15 @@
         <v>8522.1561</v>
       </c>
       <c r="G25" t="n">
-        <v>131802.3671</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>32.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1352,24 +1163,15 @@
         <v>4500</v>
       </c>
       <c r="G26" t="n">
-        <v>131802.3671</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>32.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1391,24 +1193,15 @@
         <v>786.0257</v>
       </c>
       <c r="G27" t="n">
-        <v>131802.3671</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>32.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1430,24 +1223,15 @@
         <v>1179.9999</v>
       </c>
       <c r="G28" t="n">
-        <v>132982.367</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>32.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1469,24 +1253,15 @@
         <v>4666.5451</v>
       </c>
       <c r="G29" t="n">
-        <v>128315.8219</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>32.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1508,24 +1283,21 @@
         <v>15400.1364</v>
       </c>
       <c r="G30" t="n">
-        <v>143715.9583</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
         <v>32.3</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1547,24 +1319,21 @@
         <v>1046</v>
       </c>
       <c r="G31" t="n">
-        <v>142669.9583</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
         <v>32.4</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1586,24 +1355,21 @@
         <v>23216.9924</v>
       </c>
       <c r="G32" t="n">
-        <v>142669.9583</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
         <v>32.38</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1625,22 +1391,21 @@
         <v>15124.3777</v>
       </c>
       <c r="G33" t="n">
-        <v>127545.5806</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>32.38</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1662,22 +1427,21 @@
         <v>3659.7989</v>
       </c>
       <c r="G34" t="n">
-        <v>131205.3795</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>32.05</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1699,22 +1463,21 @@
         <v>2287.74</v>
       </c>
       <c r="G35" t="n">
-        <v>133493.1195</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>32.1</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1736,22 +1499,21 @@
         <v>2712.26</v>
       </c>
       <c r="G36" t="n">
-        <v>133493.1195</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>32.16</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1773,22 +1535,21 @@
         <v>7685.2983</v>
       </c>
       <c r="G37" t="n">
-        <v>141178.4178</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>32.16</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1810,22 +1571,21 @@
         <v>16088.4884</v>
       </c>
       <c r="G38" t="n">
-        <v>157266.9062</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>32.2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1847,24 +1607,21 @@
         <v>1346.6443</v>
       </c>
       <c r="G39" t="n">
-        <v>157266.9062</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
         <v>32.3</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1886,24 +1643,21 @@
         <v>4500</v>
       </c>
       <c r="G40" t="n">
-        <v>157266.9062</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
         <v>32.3</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1925,22 +1679,21 @@
         <v>2434.3084</v>
       </c>
       <c r="G41" t="n">
-        <v>157266.9062</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>32.3</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1962,24 +1715,21 @@
         <v>1034</v>
       </c>
       <c r="G42" t="n">
-        <v>158300.9062</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
         <v>32.3</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2001,22 +1751,21 @@
         <v>47475.0208</v>
       </c>
       <c r="G43" t="n">
-        <v>205775.927</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>32.42</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2038,22 +1787,19 @@
         <v>16</v>
       </c>
       <c r="G44" t="n">
-        <v>205791.927</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2075,22 +1821,19 @@
         <v>24311.6573</v>
       </c>
       <c r="G45" t="n">
-        <v>230103.5843</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2112,22 +1855,19 @@
         <v>12222.7527</v>
       </c>
       <c r="G46" t="n">
-        <v>242326.337</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2149,22 +1889,19 @@
         <v>1445.8625</v>
       </c>
       <c r="G47" t="n">
-        <v>243772.1995</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2186,22 +1923,19 @@
         <v>21417.0777</v>
       </c>
       <c r="G48" t="n">
-        <v>222355.1218</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2223,22 +1957,19 @@
         <v>3053.1609</v>
       </c>
       <c r="G49" t="n">
-        <v>222355.1218</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2260,22 +1991,19 @@
         <v>60</v>
       </c>
       <c r="G50" t="n">
-        <v>222355.1218</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2297,22 +2025,19 @@
         <v>20</v>
       </c>
       <c r="G51" t="n">
-        <v>222375.1218</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2334,22 +2059,19 @@
         <v>20</v>
       </c>
       <c r="G52" t="n">
-        <v>222375.1218</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2371,22 +2093,19 @@
         <v>30</v>
       </c>
       <c r="G53" t="n">
-        <v>222375.1218</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2408,22 +2127,19 @@
         <v>20</v>
       </c>
       <c r="G54" t="n">
-        <v>222395.1218</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2445,22 +2161,19 @@
         <v>25584.5792</v>
       </c>
       <c r="G55" t="n">
-        <v>196810.5426</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2482,22 +2195,19 @@
         <v>21438</v>
       </c>
       <c r="G56" t="n">
-        <v>196810.5426</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2519,22 +2229,19 @@
         <v>3113.4417</v>
       </c>
       <c r="G57" t="n">
-        <v>199923.9843</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2556,22 +2263,19 @@
         <v>16</v>
       </c>
       <c r="G58" t="n">
-        <v>199907.9843</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2593,22 +2297,19 @@
         <v>25.1371</v>
       </c>
       <c r="G59" t="n">
-        <v>199882.8472</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2630,22 +2331,19 @@
         <v>748.0940000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>199134.7532</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2667,22 +2365,19 @@
         <v>1190</v>
       </c>
       <c r="G61" t="n">
-        <v>197944.7532</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2704,22 +2399,19 @@
         <v>6509.1562</v>
       </c>
       <c r="G62" t="n">
-        <v>191435.597</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2741,22 +2433,19 @@
         <v>50896.8169</v>
       </c>
       <c r="G63" t="n">
-        <v>140538.7801</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2778,22 +2467,19 @@
         <v>1341.035</v>
       </c>
       <c r="G64" t="n">
-        <v>140538.7801</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2815,22 +2501,19 @@
         <v>23435.7537</v>
       </c>
       <c r="G65" t="n">
-        <v>117103.0264</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2852,22 +2535,19 @@
         <v>21892.5849</v>
       </c>
       <c r="G66" t="n">
-        <v>138995.6113</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2889,22 +2569,21 @@
         <v>21537.2179</v>
       </c>
       <c r="G67" t="n">
-        <v>160532.8292</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>32.41</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2926,22 +2605,19 @@
         <v>20545.9914</v>
       </c>
       <c r="G68" t="n">
-        <v>139986.8378</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2963,22 +2639,19 @@
         <v>204.6815</v>
       </c>
       <c r="G69" t="n">
-        <v>140191.5193</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3000,22 +2673,21 @@
         <v>5050.607</v>
       </c>
       <c r="G70" t="n">
-        <v>135140.9123</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>32.7</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3037,22 +2709,21 @@
         <v>12178.5982</v>
       </c>
       <c r="G71" t="n">
-        <v>135140.9123</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>32.6</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3074,22 +2745,21 @@
         <v>20</v>
       </c>
       <c r="G72" t="n">
-        <v>135160.9123</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>32.6</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3111,22 +2781,19 @@
         <v>611.6411000000001</v>
       </c>
       <c r="G73" t="n">
-        <v>134549.2712</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3148,22 +2815,21 @@
         <v>21959.8232</v>
       </c>
       <c r="G74" t="n">
-        <v>156509.0944</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>32.31</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3185,22 +2851,21 @@
         <v>4018.446</v>
       </c>
       <c r="G75" t="n">
-        <v>156509.0944</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>32.32</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3222,22 +2887,21 @@
         <v>53386.0586</v>
       </c>
       <c r="G76" t="n">
-        <v>209895.153</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>32.32</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3259,22 +2923,19 @@
         <v>134853.6112</v>
       </c>
       <c r="G77" t="n">
-        <v>344748.7642</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3296,22 +2957,19 @@
         <v>203839.5047</v>
       </c>
       <c r="G78" t="n">
-        <v>548588.2689</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3333,20 +2991,19 @@
         <v>136799.9831</v>
       </c>
       <c r="G79" t="n">
-        <v>685388.2520000001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
       </c>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3368,18 +3025,19 @@
         <v>24791.565</v>
       </c>
       <c r="G80" t="n">
-        <v>660596.6870000002</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3401,18 +3059,19 @@
         <v>44564.8772</v>
       </c>
       <c r="G81" t="n">
-        <v>616031.8098000002</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3434,18 +3093,17 @@
         <v>14187.2712</v>
       </c>
       <c r="G82" t="n">
-        <v>616031.8098000002</v>
-      </c>
-      <c r="H82" t="n">
         <v>2</v>
       </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3467,18 +3125,15 @@
         <v>69.7633</v>
       </c>
       <c r="G83" t="n">
-        <v>616031.8098000002</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3500,18 +3155,15 @@
         <v>100</v>
       </c>
       <c r="G84" t="n">
-        <v>616131.8098000002</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3533,18 +3185,15 @@
         <v>100</v>
       </c>
       <c r="G85" t="n">
-        <v>616131.8098000002</v>
-      </c>
-      <c r="H85" t="n">
         <v>2</v>
       </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3566,18 +3215,15 @@
         <v>608.0597</v>
       </c>
       <c r="G86" t="n">
-        <v>615523.7501000002</v>
-      </c>
-      <c r="H86" t="n">
         <v>2</v>
       </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3599,18 +3245,15 @@
         <v>1046</v>
       </c>
       <c r="G87" t="n">
-        <v>614477.7501000002</v>
-      </c>
-      <c r="H87" t="n">
         <v>2</v>
       </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3632,18 +3275,15 @@
         <v>14510.6778</v>
       </c>
       <c r="G88" t="n">
-        <v>599967.0723000002</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3665,18 +3305,15 @@
         <v>15757.7548</v>
       </c>
       <c r="G89" t="n">
-        <v>615724.8271000002</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3698,18 +3335,15 @@
         <v>1126</v>
       </c>
       <c r="G90" t="n">
-        <v>616850.8271000002</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3731,18 +3365,15 @@
         <v>6000</v>
       </c>
       <c r="G91" t="n">
-        <v>622850.8271000002</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3764,18 +3395,15 @@
         <v>5960</v>
       </c>
       <c r="G92" t="n">
-        <v>616890.8271000002</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3797,18 +3425,15 @@
         <v>2500.4895</v>
       </c>
       <c r="G93" t="n">
-        <v>616890.8271000002</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3830,18 +3455,15 @@
         <v>21220.1561</v>
       </c>
       <c r="G94" t="n">
-        <v>595670.6710000002</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3863,18 +3485,15 @@
         <v>45398.681</v>
       </c>
       <c r="G95" t="n">
-        <v>550271.9900000002</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3896,18 +3515,15 @@
         <v>25778.4525</v>
       </c>
       <c r="G96" t="n">
-        <v>576050.4425000002</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3929,18 +3545,15 @@
         <v>10051.7036</v>
       </c>
       <c r="G97" t="n">
-        <v>586102.1461000002</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3962,18 +3575,15 @@
         <v>4342.5057</v>
       </c>
       <c r="G98" t="n">
-        <v>586102.1461000002</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3995,18 +3605,15 @@
         <v>11419.9999</v>
       </c>
       <c r="G99" t="n">
-        <v>597522.1460000003</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4028,18 +3635,15 @@
         <v>12085</v>
       </c>
       <c r="G100" t="n">
-        <v>585437.1460000003</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4061,18 +3665,15 @@
         <v>3779.9999</v>
       </c>
       <c r="G101" t="n">
-        <v>585437.1460000003</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4094,18 +3695,15 @@
         <v>6014.5648</v>
       </c>
       <c r="G102" t="n">
-        <v>585437.1460000003</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4127,18 +3725,15 @@
         <v>7876.0372</v>
       </c>
       <c r="G103" t="n">
-        <v>577561.1088000003</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4160,18 +3755,15 @@
         <v>60.5767</v>
       </c>
       <c r="G104" t="n">
-        <v>577561.1088000003</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4193,18 +3785,15 @@
         <v>7025.9714</v>
       </c>
       <c r="G105" t="n">
-        <v>570535.1374000002</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4226,18 +3815,15 @@
         <v>91148.9201</v>
       </c>
       <c r="G106" t="n">
-        <v>661684.0575000002</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4259,18 +3845,15 @@
         <v>47045.3234</v>
       </c>
       <c r="G107" t="n">
-        <v>661684.0575000002</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4292,18 +3875,15 @@
         <v>91476.33289999999</v>
       </c>
       <c r="G108" t="n">
-        <v>753160.3904000003</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4325,18 +3905,15 @@
         <v>7378.5518</v>
       </c>
       <c r="G109" t="n">
-        <v>760538.9422000003</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4358,18 +3935,15 @@
         <v>19994</v>
       </c>
       <c r="G110" t="n">
-        <v>740544.9422000003</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4391,18 +3965,15 @@
         <v>30446.1451</v>
       </c>
       <c r="G111" t="n">
-        <v>740544.9422000003</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4424,18 +3995,15 @@
         <v>69229.0652</v>
       </c>
       <c r="G112" t="n">
-        <v>809774.0074000002</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4457,18 +4025,15 @@
         <v>10000</v>
       </c>
       <c r="G113" t="n">
-        <v>799774.0074000002</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,18 +4055,15 @@
         <v>13999</v>
       </c>
       <c r="G114" t="n">
-        <v>799774.0074000002</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4523,18 +4085,15 @@
         <v>1240</v>
       </c>
       <c r="G115" t="n">
-        <v>801014.0074000002</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4556,18 +4115,15 @@
         <v>36339.8264</v>
       </c>
       <c r="G116" t="n">
-        <v>837353.8338000003</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4589,18 +4145,15 @@
         <v>23727.252</v>
       </c>
       <c r="G117" t="n">
-        <v>813626.5818000003</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4622,18 +4175,15 @@
         <v>11679</v>
       </c>
       <c r="G118" t="n">
-        <v>801947.5818000003</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4655,18 +4205,15 @@
         <v>7767.4408</v>
       </c>
       <c r="G119" t="n">
-        <v>801947.5818000003</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4688,18 +4235,15 @@
         <v>4500</v>
       </c>
       <c r="G120" t="n">
-        <v>801947.5818000003</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4721,18 +4265,15 @@
         <v>1179.9999</v>
       </c>
       <c r="G121" t="n">
-        <v>803127.5817000003</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4754,18 +4295,15 @@
         <v>7849.3361</v>
       </c>
       <c r="G122" t="n">
-        <v>810976.9178000003</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4787,18 +4325,15 @@
         <v>2400</v>
       </c>
       <c r="G123" t="n">
-        <v>808576.9178000003</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4820,18 +4355,15 @@
         <v>7849.3361</v>
       </c>
       <c r="G124" t="n">
-        <v>800727.5817000003</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4853,18 +4385,15 @@
         <v>3610</v>
       </c>
       <c r="G125" t="n">
-        <v>804337.5817000003</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4886,18 +4415,15 @@
         <v>285.5512</v>
       </c>
       <c r="G126" t="n">
-        <v>804623.1329000003</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4919,18 +4445,15 @@
         <v>8953.318300000001</v>
       </c>
       <c r="G127" t="n">
-        <v>804623.1329000003</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4952,18 +4475,15 @@
         <v>5000</v>
       </c>
       <c r="G128" t="n">
-        <v>799623.1329000003</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4985,18 +4505,15 @@
         <v>24401</v>
       </c>
       <c r="G129" t="n">
-        <v>824024.1329000003</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5018,18 +4535,15 @@
         <v>5995</v>
       </c>
       <c r="G130" t="n">
-        <v>818029.1329000003</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
